--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mif-Cd74.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mif-Cd74.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.29761233333333</v>
+        <v>16.37389066666667</v>
       </c>
       <c r="H2">
-        <v>63.892837</v>
+        <v>49.121672</v>
       </c>
       <c r="I2">
-        <v>0.07945479053849795</v>
+        <v>0.09466313117816218</v>
       </c>
       <c r="J2">
-        <v>0.07945479053849797</v>
+        <v>0.09466313117816218</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.519745</v>
+        <v>2.637818666666667</v>
       </c>
       <c r="N2">
-        <v>28.559235</v>
+        <v>7.913456</v>
       </c>
       <c r="O2">
-        <v>0.006175297786916963</v>
+        <v>0.0004172035720137759</v>
       </c>
       <c r="P2">
-        <v>0.006175297786916962</v>
+        <v>0.0004172035720137759</v>
       </c>
       <c r="Q2">
-        <v>202.7478385221883</v>
+        <v>43.19135444649245</v>
       </c>
       <c r="R2">
-        <v>1824.730546699695</v>
+        <v>388.7221900184321</v>
       </c>
       <c r="S2">
-        <v>0.0004906569921723372</v>
+        <v>3.94937964655379E-05</v>
       </c>
       <c r="T2">
-        <v>0.0004906569921723372</v>
+        <v>3.94937964655379E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.29761233333333</v>
+        <v>16.37389066666667</v>
       </c>
       <c r="H3">
-        <v>63.892837</v>
+        <v>49.121672</v>
       </c>
       <c r="I3">
-        <v>0.07945479053849795</v>
+        <v>0.09466313117816218</v>
       </c>
       <c r="J3">
-        <v>0.07945479053849797</v>
+        <v>0.09466313117816218</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.308000333333333</v>
+        <v>3.308000333333334</v>
       </c>
       <c r="N3">
-        <v>9.924000999999999</v>
+        <v>9.924001000000001</v>
       </c>
       <c r="O3">
-        <v>0.002145843941991503</v>
+        <v>0.0005232010724351389</v>
       </c>
       <c r="P3">
-        <v>0.002145843941991503</v>
+        <v>0.0005232010724351389</v>
       </c>
       <c r="Q3">
-        <v>70.45250869787077</v>
+        <v>54.1648357832969</v>
       </c>
       <c r="R3">
-        <v>634.0725782808369</v>
+        <v>487.483522049672</v>
       </c>
       <c r="S3">
-        <v>0.0001704975809392396</v>
+        <v>4.952785175248268E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001704975809392397</v>
+        <v>4.952785175248268E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.29761233333333</v>
+        <v>16.37389066666667</v>
       </c>
       <c r="H4">
-        <v>63.892837</v>
+        <v>49.121672</v>
       </c>
       <c r="I4">
-        <v>0.07945479053849795</v>
+        <v>0.09466313117816218</v>
       </c>
       <c r="J4">
-        <v>0.07945479053849797</v>
+        <v>0.09466313117816218</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>561.5112203333333</v>
+        <v>4553.983642666666</v>
       </c>
       <c r="N4">
-        <v>1684.533661</v>
+        <v>13661.950928</v>
       </c>
       <c r="O4">
-        <v>0.3642428443465109</v>
+        <v>0.7202687078614602</v>
       </c>
       <c r="P4">
-        <v>0.3642428443465109</v>
+        <v>0.7202687078614602</v>
       </c>
       <c r="Q4">
-        <v>11958.84829147625</v>
+        <v>74566.4302628124</v>
       </c>
       <c r="R4">
-        <v>107629.6346232863</v>
+        <v>671097.8723653116</v>
       </c>
       <c r="S4">
-        <v>0.02894083890269874</v>
+        <v>0.06818289117581479</v>
       </c>
       <c r="T4">
-        <v>0.02894083890269875</v>
+        <v>0.06818289117581479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.29761233333333</v>
+        <v>16.37389066666667</v>
       </c>
       <c r="H5">
-        <v>63.892837</v>
+        <v>49.121672</v>
       </c>
       <c r="I5">
-        <v>0.07945479053849795</v>
+        <v>0.09466313117816218</v>
       </c>
       <c r="J5">
-        <v>0.07945479053849797</v>
+        <v>0.09466313117816218</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.366183</v>
+        <v>1.360548333333333</v>
       </c>
       <c r="N5">
-        <v>4.098549</v>
+        <v>4.081645</v>
       </c>
       <c r="O5">
-        <v>0.0008862198363951532</v>
+        <v>0.0002151875076694896</v>
       </c>
       <c r="P5">
-        <v>0.0008862198363951531</v>
+        <v>0.0002151875076694896</v>
       </c>
       <c r="Q5">
-        <v>29.09643591039034</v>
+        <v>22.27746965671556</v>
       </c>
       <c r="R5">
-        <v>261.867923193513</v>
+        <v>200.49722691044</v>
       </c>
       <c r="S5">
-        <v>7.041441147183881E-05</v>
+        <v>2.037032326641867E-05</v>
       </c>
       <c r="T5">
-        <v>7.041441147183883E-05</v>
+        <v>2.037032326641867E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.29761233333333</v>
+        <v>16.37389066666667</v>
       </c>
       <c r="H6">
-        <v>63.892837</v>
+        <v>49.121672</v>
       </c>
       <c r="I6">
-        <v>0.07945479053849795</v>
+        <v>0.09466313117816218</v>
       </c>
       <c r="J6">
-        <v>0.07945479053849797</v>
+        <v>0.09466313117816218</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>965.8796183333333</v>
+        <v>1761.327636666667</v>
       </c>
       <c r="N6">
-        <v>2897.638855</v>
+        <v>5283.982910000001</v>
       </c>
       <c r="O6">
-        <v>0.6265497940881855</v>
+        <v>0.2785756999864214</v>
       </c>
       <c r="P6">
-        <v>0.6265497940881853</v>
+        <v>0.2785756999864214</v>
       </c>
       <c r="Q6">
-        <v>20570.92967193129</v>
+        <v>28839.7861509584</v>
       </c>
       <c r="R6">
-        <v>185138.3670473816</v>
+        <v>259558.0753586256</v>
       </c>
       <c r="S6">
-        <v>0.0497823826512158</v>
+        <v>0.02637084803086296</v>
       </c>
       <c r="T6">
-        <v>0.0497823826512158</v>
+        <v>0.02637084803086296</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>217.624695</v>
       </c>
       <c r="I7">
-        <v>0.270630095158077</v>
+        <v>0.4193879037829277</v>
       </c>
       <c r="J7">
-        <v>0.2706300951580771</v>
+        <v>0.4193879037829278</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.519745</v>
+        <v>2.637818666666667</v>
       </c>
       <c r="N7">
-        <v>28.559235</v>
+        <v>7.913456</v>
       </c>
       <c r="O7">
-        <v>0.006175297786916963</v>
+        <v>0.0004172035720137759</v>
       </c>
       <c r="P7">
-        <v>0.006175297786916962</v>
+        <v>0.0004172035720137759</v>
       </c>
       <c r="Q7">
-        <v>690.5772007009251</v>
+        <v>191.3514942662133</v>
       </c>
       <c r="R7">
-        <v>6215.194806308326</v>
+        <v>1722.16344839592</v>
       </c>
       <c r="S7">
-        <v>0.0016712214277028</v>
+        <v>0.0001749701315176072</v>
       </c>
       <c r="T7">
-        <v>0.0016712214277028</v>
+        <v>0.0001749701315176072</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>217.624695</v>
       </c>
       <c r="I8">
-        <v>0.270630095158077</v>
+        <v>0.4193879037829277</v>
       </c>
       <c r="J8">
-        <v>0.2706300951580771</v>
+        <v>0.4193879037829278</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.308000333333333</v>
+        <v>3.308000333333334</v>
       </c>
       <c r="N8">
-        <v>9.924000999999999</v>
+        <v>9.924001000000001</v>
       </c>
       <c r="O8">
-        <v>0.002145843941991503</v>
+        <v>0.0005232010724351389</v>
       </c>
       <c r="P8">
-        <v>0.002145843941991503</v>
+        <v>0.0005232010724351389</v>
       </c>
       <c r="Q8">
-        <v>239.9675212005216</v>
+        <v>239.9675212005217</v>
       </c>
       <c r="R8">
-        <v>2159.707690804695</v>
+        <v>2159.707690804696</v>
       </c>
       <c r="S8">
-        <v>0.0005807299502155436</v>
+        <v>0.0002194242010255526</v>
       </c>
       <c r="T8">
-        <v>0.0005807299502155437</v>
+        <v>0.0002194242010255527</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>217.624695</v>
       </c>
       <c r="I9">
-        <v>0.270630095158077</v>
+        <v>0.4193879037829277</v>
       </c>
       <c r="J9">
-        <v>0.2706300951580771</v>
+        <v>0.4193879037829278</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>561.5112203333333</v>
+        <v>4553.983642666666</v>
       </c>
       <c r="N9">
-        <v>1684.533661</v>
+        <v>13661.950928</v>
       </c>
       <c r="O9">
-        <v>0.3642428443465109</v>
+        <v>0.7202687078614602</v>
       </c>
       <c r="P9">
-        <v>0.3642428443465109</v>
+        <v>0.7202687078614602</v>
       </c>
       <c r="Q9">
-        <v>40732.90268803982</v>
+        <v>330353.1004234407</v>
       </c>
       <c r="R9">
-        <v>366596.1241923585</v>
+        <v>2973177.903810967</v>
       </c>
       <c r="S9">
-        <v>0.09857507562614488</v>
+        <v>0.3020719835504558</v>
       </c>
       <c r="T9">
-        <v>0.09857507562614491</v>
+        <v>0.3020719835504558</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>217.624695</v>
       </c>
       <c r="I10">
-        <v>0.270630095158077</v>
+        <v>0.4193879037829277</v>
       </c>
       <c r="J10">
-        <v>0.2706300951580771</v>
+        <v>0.4193879037829278</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.366183</v>
+        <v>1.360548333333333</v>
       </c>
       <c r="N10">
-        <v>4.098549</v>
+        <v>4.081645</v>
       </c>
       <c r="O10">
-        <v>0.0008862198363951532</v>
+        <v>0.0002151875076694896</v>
       </c>
       <c r="P10">
-        <v>0.0008862198363951531</v>
+        <v>0.0002151875076694896</v>
       </c>
       <c r="Q10">
-        <v>99.10505289639502</v>
+        <v>98.69630535814167</v>
       </c>
       <c r="R10">
-        <v>891.9454760675552</v>
+        <v>888.2667482232752</v>
       </c>
       <c r="S10">
-        <v>0.0002398377586545957</v>
+        <v>9.024703776177991E-05</v>
       </c>
       <c r="T10">
-        <v>0.0002398377586545958</v>
+        <v>9.024703776177993E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>217.624695</v>
       </c>
       <c r="I11">
-        <v>0.270630095158077</v>
+        <v>0.4193879037829277</v>
       </c>
       <c r="J11">
-        <v>0.2706300951580771</v>
+        <v>0.4193879037829278</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>965.8796183333333</v>
+        <v>1761.327636666667</v>
       </c>
       <c r="N11">
-        <v>2897.638855</v>
+        <v>5283.982910000001</v>
       </c>
       <c r="O11">
-        <v>0.6265497940881855</v>
+        <v>0.2785756999864214</v>
       </c>
       <c r="P11">
-        <v>0.6265497940881853</v>
+        <v>0.2785756999864214</v>
       </c>
       <c r="Q11">
-        <v>70066.41911550269</v>
+        <v>127769.4632415514</v>
       </c>
       <c r="R11">
-        <v>630597.7720395243</v>
+        <v>1149925.169173963</v>
       </c>
       <c r="S11">
-        <v>0.1695632303953592</v>
+        <v>0.116831278862167</v>
       </c>
       <c r="T11">
-        <v>0.1695632303953592</v>
+        <v>0.1168312788621671</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>71.11627966666667</v>
+        <v>26.10071233333333</v>
       </c>
       <c r="H12">
-        <v>213.348839</v>
+        <v>78.302137</v>
       </c>
       <c r="I12">
-        <v>0.2653127973387177</v>
+        <v>0.1508972550112184</v>
       </c>
       <c r="J12">
-        <v>0.2653127973387177</v>
+        <v>0.1508972550112184</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.519745</v>
+        <v>2.637818666666667</v>
       </c>
       <c r="N12">
-        <v>28.559235</v>
+        <v>7.913456</v>
       </c>
       <c r="O12">
-        <v>0.006175297786916963</v>
+        <v>0.0004172035720137759</v>
       </c>
       <c r="P12">
-        <v>0.006175297786916962</v>
+        <v>0.0004172035720137759</v>
       </c>
       <c r="Q12">
-        <v>677.0088477753517</v>
+        <v>68.84894620616356</v>
       </c>
       <c r="R12">
-        <v>6093.079629978165</v>
+        <v>619.640515855472</v>
       </c>
       <c r="S12">
-        <v>0.001638385530246532</v>
+        <v>6.295487379775397E-05</v>
       </c>
       <c r="T12">
-        <v>0.001638385530246532</v>
+        <v>6.295487379775397E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>71.11627966666667</v>
+        <v>26.10071233333333</v>
       </c>
       <c r="H13">
-        <v>213.348839</v>
+        <v>78.302137</v>
       </c>
       <c r="I13">
-        <v>0.2653127973387177</v>
+        <v>0.1508972550112184</v>
       </c>
       <c r="J13">
-        <v>0.2653127973387177</v>
+        <v>0.1508972550112184</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.308000333333333</v>
+        <v>3.308000333333334</v>
       </c>
       <c r="N13">
-        <v>9.924000999999999</v>
+        <v>9.924001000000001</v>
       </c>
       <c r="O13">
-        <v>0.002145843941991503</v>
+        <v>0.0005232010724351389</v>
       </c>
       <c r="P13">
-        <v>0.002145843941991503</v>
+        <v>0.0005232010724351389</v>
       </c>
       <c r="Q13">
-        <v>235.2526768427599</v>
+        <v>86.34116509890413</v>
       </c>
       <c r="R13">
-        <v>2117.274091584839</v>
+        <v>777.0704858901371</v>
       </c>
       <c r="S13">
-        <v>0.0005693198589021068</v>
+        <v>7.89496056493881E-05</v>
       </c>
       <c r="T13">
-        <v>0.0005693198589021068</v>
+        <v>7.89496056493881E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>71.11627966666667</v>
+        <v>26.10071233333333</v>
       </c>
       <c r="H14">
-        <v>213.348839</v>
+        <v>78.302137</v>
       </c>
       <c r="I14">
-        <v>0.2653127973387177</v>
+        <v>0.1508972550112184</v>
       </c>
       <c r="J14">
-        <v>0.2653127973387177</v>
+        <v>0.1508972550112184</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>561.5112203333333</v>
+        <v>4553.983642666666</v>
       </c>
       <c r="N14">
-        <v>1684.533661</v>
+        <v>13661.950928</v>
       </c>
       <c r="O14">
-        <v>0.3642428443465109</v>
+        <v>0.7202687078614602</v>
       </c>
       <c r="P14">
-        <v>0.3642428443465109</v>
+        <v>0.7202687078614602</v>
       </c>
       <c r="Q14">
-        <v>39932.58898119662</v>
+        <v>118862.2170279481</v>
       </c>
       <c r="R14">
-        <v>359393.3008307696</v>
+        <v>1069759.953251533</v>
       </c>
       <c r="S14">
-        <v>0.09663828794418396</v>
+        <v>0.1086865708867715</v>
       </c>
       <c r="T14">
-        <v>0.09663828794418396</v>
+        <v>0.1086865708867715</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>71.11627966666667</v>
+        <v>26.10071233333333</v>
       </c>
       <c r="H15">
-        <v>213.348839</v>
+        <v>78.302137</v>
       </c>
       <c r="I15">
-        <v>0.2653127973387177</v>
+        <v>0.1508972550112184</v>
       </c>
       <c r="J15">
-        <v>0.2653127973387177</v>
+        <v>0.1508972550112184</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.366183</v>
+        <v>1.360548333333333</v>
       </c>
       <c r="N15">
-        <v>4.098549</v>
+        <v>4.081645</v>
       </c>
       <c r="O15">
-        <v>0.0008862198363951532</v>
+        <v>0.0002151875076694896</v>
       </c>
       <c r="P15">
-        <v>0.0008862198363951531</v>
+        <v>0.0002151875076694896</v>
       </c>
       <c r="Q15">
-        <v>97.15785230384569</v>
+        <v>35.51128066392944</v>
       </c>
       <c r="R15">
-        <v>874.420670734611</v>
+        <v>319.601525975365</v>
       </c>
       <c r="S15">
-        <v>0.0002351254638510588</v>
+        <v>3.247120422003148E-05</v>
       </c>
       <c r="T15">
-        <v>0.0002351254638510588</v>
+        <v>3.247120422003148E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>71.11627966666667</v>
+        <v>26.10071233333333</v>
       </c>
       <c r="H16">
-        <v>213.348839</v>
+        <v>78.302137</v>
       </c>
       <c r="I16">
-        <v>0.2653127973387177</v>
+        <v>0.1508972550112184</v>
       </c>
       <c r="J16">
-        <v>0.2653127973387177</v>
+        <v>0.1508972550112184</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>965.8796183333333</v>
+        <v>1761.327636666667</v>
       </c>
       <c r="N16">
-        <v>2897.638855</v>
+        <v>5283.982910000001</v>
       </c>
       <c r="O16">
-        <v>0.6265497940881855</v>
+        <v>0.2785756999864214</v>
       </c>
       <c r="P16">
-        <v>0.6265497940881853</v>
+        <v>0.2785756999864214</v>
       </c>
       <c r="Q16">
-        <v>68689.76506172659</v>
+        <v>45971.90596938653</v>
       </c>
       <c r="R16">
-        <v>618207.8855555393</v>
+        <v>413747.1537244787</v>
       </c>
       <c r="S16">
-        <v>0.1662316785415341</v>
+        <v>0.0420363084407797</v>
       </c>
       <c r="T16">
-        <v>0.166231678541534</v>
+        <v>0.0420363084407797</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>56.240078</v>
+        <v>27.85999533333333</v>
       </c>
       <c r="H17">
-        <v>168.720234</v>
+        <v>83.57998600000001</v>
       </c>
       <c r="I17">
-        <v>0.2098142997168268</v>
+        <v>0.1610682791617304</v>
       </c>
       <c r="J17">
-        <v>0.2098142997168268</v>
+        <v>0.1610682791617305</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.519745</v>
+        <v>2.637818666666667</v>
       </c>
       <c r="N17">
-        <v>28.559235</v>
+        <v>7.913456</v>
       </c>
       <c r="O17">
-        <v>0.006175297786916963</v>
+        <v>0.0004172035720137759</v>
       </c>
       <c r="P17">
-        <v>0.006175297786916962</v>
+        <v>0.0004172035720137759</v>
       </c>
       <c r="Q17">
-        <v>535.39120134011</v>
+        <v>73.48961574351289</v>
       </c>
       <c r="R17">
-        <v>4818.52081206099</v>
+        <v>661.4065416916161</v>
       </c>
       <c r="S17">
-        <v>0.001295665780704853</v>
+        <v>6.719826140438597E-05</v>
       </c>
       <c r="T17">
-        <v>0.001295665780704853</v>
+        <v>6.719826140438599E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>56.240078</v>
+        <v>27.85999533333333</v>
       </c>
       <c r="H18">
-        <v>168.720234</v>
+        <v>83.57998600000001</v>
       </c>
       <c r="I18">
-        <v>0.2098142997168268</v>
+        <v>0.1610682791617304</v>
       </c>
       <c r="J18">
-        <v>0.2098142997168268</v>
+        <v>0.1610682791617305</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.308000333333333</v>
+        <v>3.308000333333334</v>
       </c>
       <c r="N18">
-        <v>9.924000999999999</v>
+        <v>9.924001000000001</v>
       </c>
       <c r="O18">
-        <v>0.002145843941991503</v>
+        <v>0.0005232010724351389</v>
       </c>
       <c r="P18">
-        <v>0.002145843941991503</v>
+        <v>0.0005232010724351389</v>
       </c>
       <c r="Q18">
-        <v>186.0421967706926</v>
+        <v>92.16087384933179</v>
       </c>
       <c r="R18">
-        <v>1674.379770936234</v>
+        <v>829.4478646439861</v>
       </c>
       <c r="S18">
-        <v>0.0004502287439905424</v>
+        <v>8.42710963926997E-05</v>
       </c>
       <c r="T18">
-        <v>0.0004502287439905424</v>
+        <v>8.427109639269971E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>56.240078</v>
+        <v>27.85999533333333</v>
       </c>
       <c r="H19">
-        <v>168.720234</v>
+        <v>83.57998600000001</v>
       </c>
       <c r="I19">
-        <v>0.2098142997168268</v>
+        <v>0.1610682791617304</v>
       </c>
       <c r="J19">
-        <v>0.2098142997168268</v>
+        <v>0.1610682791617305</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>561.5112203333333</v>
+        <v>4553.983642666666</v>
       </c>
       <c r="N19">
-        <v>1684.533661</v>
+        <v>13661.950928</v>
       </c>
       <c r="O19">
-        <v>0.3642428443465109</v>
+        <v>0.7202687078614602</v>
       </c>
       <c r="P19">
-        <v>0.3642428443465109</v>
+        <v>0.7202687078614602</v>
       </c>
       <c r="Q19">
-        <v>31579.43482942185</v>
+        <v>126873.9630327697</v>
       </c>
       <c r="R19">
-        <v>284214.9134647967</v>
+        <v>1141865.667294927</v>
       </c>
       <c r="S19">
-        <v>0.07642335731342834</v>
+        <v>0.1160124413092885</v>
       </c>
       <c r="T19">
-        <v>0.07642335731342835</v>
+        <v>0.1160124413092886</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.240078</v>
+        <v>27.85999533333333</v>
       </c>
       <c r="H20">
-        <v>168.720234</v>
+        <v>83.57998600000001</v>
       </c>
       <c r="I20">
-        <v>0.2098142997168268</v>
+        <v>0.1610682791617304</v>
       </c>
       <c r="J20">
-        <v>0.2098142997168268</v>
+        <v>0.1610682791617305</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.366183</v>
+        <v>1.360548333333333</v>
       </c>
       <c r="N20">
-        <v>4.098549</v>
+        <v>4.081645</v>
       </c>
       <c r="O20">
-        <v>0.0008862198363951532</v>
+        <v>0.0002151875076694896</v>
       </c>
       <c r="P20">
-        <v>0.0008862198363951531</v>
+        <v>0.0002151875076694896</v>
       </c>
       <c r="Q20">
-        <v>76.83423848227402</v>
+        <v>37.90487021744111</v>
       </c>
       <c r="R20">
-        <v>691.5081463404661</v>
+        <v>341.14383195697</v>
       </c>
       <c r="S20">
-        <v>0.0001859415943684099</v>
+        <v>3.465988155742636E-05</v>
       </c>
       <c r="T20">
-        <v>0.0001859415943684099</v>
+        <v>3.465988155742636E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.240078</v>
+        <v>27.85999533333333</v>
       </c>
       <c r="H21">
-        <v>168.720234</v>
+        <v>83.57998600000001</v>
       </c>
       <c r="I21">
-        <v>0.2098142997168268</v>
+        <v>0.1610682791617304</v>
       </c>
       <c r="J21">
-        <v>0.2098142997168268</v>
+        <v>0.1610682791617305</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>965.8796183333333</v>
+        <v>1761.327636666667</v>
       </c>
       <c r="N21">
-        <v>2897.638855</v>
+        <v>5283.982910000001</v>
       </c>
       <c r="O21">
-        <v>0.6265497940881855</v>
+        <v>0.2785756999864214</v>
       </c>
       <c r="P21">
-        <v>0.6265497940881853</v>
+        <v>0.2785756999864214</v>
       </c>
       <c r="Q21">
-        <v>54321.1450736769</v>
+        <v>49070.57973800437</v>
       </c>
       <c r="R21">
-        <v>488890.305663092</v>
+        <v>441635.2176420394</v>
       </c>
       <c r="S21">
-        <v>0.1314591062843347</v>
+        <v>0.04486970861308739</v>
       </c>
       <c r="T21">
-        <v>0.1314591062843347</v>
+        <v>0.04486970861308739</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>46.85139066666667</v>
+        <v>30.09393033333333</v>
       </c>
       <c r="H22">
-        <v>140.554172</v>
+        <v>90.281791</v>
       </c>
       <c r="I22">
-        <v>0.1747880172478804</v>
+        <v>0.1739834308659612</v>
       </c>
       <c r="J22">
-        <v>0.1747880172478805</v>
+        <v>0.1739834308659612</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.519745</v>
+        <v>2.637818666666667</v>
       </c>
       <c r="N22">
-        <v>28.559235</v>
+        <v>7.913456</v>
       </c>
       <c r="O22">
-        <v>0.006175297786916963</v>
+        <v>0.0004172035720137759</v>
       </c>
       <c r="P22">
-        <v>0.006175297786916962</v>
+        <v>0.0004172035720137759</v>
       </c>
       <c r="Q22">
-        <v>446.0132920420467</v>
+        <v>79.38233118663288</v>
       </c>
       <c r="R22">
-        <v>4014.11962837842</v>
+        <v>714.4409806796959</v>
       </c>
       <c r="S22">
-        <v>0.00107936805609044</v>
+        <v>7.258650882849084E-05</v>
       </c>
       <c r="T22">
-        <v>0.00107936805609044</v>
+        <v>7.258650882849084E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>46.85139066666667</v>
+        <v>30.09393033333333</v>
       </c>
       <c r="H23">
-        <v>140.554172</v>
+        <v>90.281791</v>
       </c>
       <c r="I23">
-        <v>0.1747880172478804</v>
+        <v>0.1739834308659612</v>
       </c>
       <c r="J23">
-        <v>0.1747880172478805</v>
+        <v>0.1739834308659612</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.308000333333333</v>
+        <v>3.308000333333334</v>
       </c>
       <c r="N23">
-        <v>9.924000999999999</v>
+        <v>9.924001000000001</v>
       </c>
       <c r="O23">
-        <v>0.002145843941991503</v>
+        <v>0.0005232010724351389</v>
       </c>
       <c r="P23">
-        <v>0.002145843941991503</v>
+        <v>0.0005232010724351389</v>
       </c>
       <c r="Q23">
-        <v>154.9844159424635</v>
+        <v>99.55073157397679</v>
       </c>
       <c r="R23">
-        <v>1394.859743482172</v>
+        <v>895.956584165791</v>
       </c>
       <c r="S23">
-        <v>0.0003750678079440706</v>
+        <v>9.102831761501573E-05</v>
       </c>
       <c r="T23">
-        <v>0.0003750678079440706</v>
+        <v>9.102831761501573E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>46.85139066666667</v>
+        <v>30.09393033333333</v>
       </c>
       <c r="H24">
-        <v>140.554172</v>
+        <v>90.281791</v>
       </c>
       <c r="I24">
-        <v>0.1747880172478804</v>
+        <v>0.1739834308659612</v>
       </c>
       <c r="J24">
-        <v>0.1747880172478805</v>
+        <v>0.1739834308659612</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>561.5112203333333</v>
+        <v>4553.983642666666</v>
       </c>
       <c r="N24">
-        <v>1684.533661</v>
+        <v>13661.950928</v>
       </c>
       <c r="O24">
-        <v>0.3642428443465109</v>
+        <v>0.7202687078614602</v>
       </c>
       <c r="P24">
-        <v>0.3642428443465109</v>
+        <v>0.7202687078614602</v>
       </c>
       <c r="Q24">
-        <v>26307.58154755374</v>
+        <v>137047.2664815502</v>
       </c>
       <c r="R24">
-        <v>236768.2339279837</v>
+        <v>1233425.398333952</v>
       </c>
       <c r="S24">
-        <v>0.06366528456005498</v>
+        <v>0.1253148209391296</v>
       </c>
       <c r="T24">
-        <v>0.06366528456005499</v>
+        <v>0.1253148209391296</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>46.85139066666667</v>
+        <v>30.09393033333333</v>
       </c>
       <c r="H25">
-        <v>140.554172</v>
+        <v>90.281791</v>
       </c>
       <c r="I25">
-        <v>0.1747880172478804</v>
+        <v>0.1739834308659612</v>
       </c>
       <c r="J25">
-        <v>0.1747880172478805</v>
+        <v>0.1739834308659612</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.366183</v>
+        <v>1.360548333333333</v>
       </c>
       <c r="N25">
-        <v>4.098549</v>
+        <v>4.081645</v>
       </c>
       <c r="O25">
-        <v>0.0008862198363951532</v>
+        <v>0.0002151875076694896</v>
       </c>
       <c r="P25">
-        <v>0.0008862198363951531</v>
+        <v>0.0002151875076694896</v>
       </c>
       <c r="Q25">
-        <v>64.00757345515868</v>
+        <v>40.94424675846611</v>
       </c>
       <c r="R25">
-        <v>576.068161096428</v>
+        <v>368.498220826195</v>
       </c>
       <c r="S25">
-        <v>0.0001549006080492498</v>
+        <v>3.743906086383313E-05</v>
       </c>
       <c r="T25">
-        <v>0.0001549006080492498</v>
+        <v>3.743906086383313E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>46.85139066666667</v>
+        <v>30.09393033333333</v>
       </c>
       <c r="H26">
-        <v>140.554172</v>
+        <v>90.281791</v>
       </c>
       <c r="I26">
-        <v>0.1747880172478804</v>
+        <v>0.1739834308659612</v>
       </c>
       <c r="J26">
-        <v>0.1747880172478805</v>
+        <v>0.1739834308659612</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>965.8796183333333</v>
+        <v>1761.327636666667</v>
       </c>
       <c r="N26">
-        <v>2897.638855</v>
+        <v>5283.982910000001</v>
       </c>
       <c r="O26">
-        <v>0.6265497940881855</v>
+        <v>0.2785756999864214</v>
       </c>
       <c r="P26">
-        <v>0.6265497940881853</v>
+        <v>0.2785756999864214</v>
       </c>
       <c r="Q26">
-        <v>45252.80333550589</v>
+        <v>53005.27119202132</v>
       </c>
       <c r="R26">
-        <v>407275.230019553</v>
+        <v>477047.4407281919</v>
       </c>
       <c r="S26">
-        <v>0.1095133962157417</v>
+        <v>0.04846755603952429</v>
       </c>
       <c r="T26">
-        <v>0.1095133962157417</v>
+        <v>0.04846755603952429</v>
       </c>
     </row>
   </sheetData>
